--- a/tables/ALL TABLES.xlsx
+++ b/tables/ALL TABLES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="154">
   <si>
     <t>C</t>
   </si>
@@ -481,33 +481,6 @@
   </si>
   <si>
     <t>ALL CHORDS</t>
-  </si>
-  <si>
-    <t>Gb:maj</t>
-  </si>
-  <si>
-    <t>E:min</t>
-  </si>
-  <si>
-    <t>A:min</t>
-  </si>
-  <si>
-    <t>G:maj</t>
-  </si>
-  <si>
-    <t>D:maj</t>
-  </si>
-  <si>
-    <t>C:maj</t>
-  </si>
-  <si>
-    <t>C:min</t>
-  </si>
-  <si>
-    <t>F:maj</t>
-  </si>
-  <si>
-    <t>B:7</t>
   </si>
 </sst>
 </file>
@@ -648,8 +621,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -737,7 +720,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="69">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -767,6 +750,11 @@
     <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -796,6 +784,11 @@
     <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1125,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="H2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1142,10 +1135,11 @@
     <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:17">
       <c r="A1" s="7" t="s">
         <v>91</v>
       </c>
@@ -1164,15 +1158,12 @@
         <v>14</v>
       </c>
       <c r="M1" s="6"/>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="V1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -1196,20 +1187,12 @@
       <c r="M2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>66</v>
-      </c>
-      <c r="S2">
-        <v>17</v>
-      </c>
-      <c r="V2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1242,19 +1225,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>225</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1287,19 +1264,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>65</v>
-      </c>
-      <c r="S4">
-        <v>20</v>
-      </c>
-      <c r="V4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1320,10 +1291,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>2</v>
@@ -1332,23 +1303,13 @@
         <v>3</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>SUM(S2:S73)</f>
-        <v>103</v>
-      </c>
-      <c r="V5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1381,19 +1342,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="1">
-        <v>419</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="V6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1414,10 +1369,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>4</v>
@@ -1426,19 +1381,13 @@
         <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="1">
-        <v>263</v>
-      </c>
-      <c r="S7">
-        <v>11</v>
-      </c>
-      <c r="V7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1459,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1471,19 +1420,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="1">
-        <v>180</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,19 +1459,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="1">
-        <v>67</v>
-      </c>
-      <c r="S9">
-        <v>8</v>
-      </c>
-      <c r="V9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1549,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1561,19 +1498,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="1">
-        <v>138</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1606,19 +1537,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="1">
-        <v>220</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,10 +1564,10 @@
         <v>9</v>
       </c>
       <c r="I12" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>9</v>
@@ -1651,19 +1576,13 @@
         <v>2</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="1">
-        <v>193</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1696,19 +1615,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="1">
-        <v>349</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1732,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>11</v>
@@ -1741,19 +1654,13 @@
         <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="1">
-        <v>202</v>
-      </c>
-      <c r="S14">
-        <v>6</v>
-      </c>
-      <c r="V14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1771,19 +1678,13 @@
         <v>231</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="1">
-        <v>341</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1801,19 +1702,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="1">
-        <v>548</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1831,19 +1726,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1861,19 +1750,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="1">
-        <v>409</v>
-      </c>
-      <c r="S18">
-        <v>10</v>
-      </c>
-      <c r="V18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1891,19 +1774,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="1">
-        <v>119</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1921,19 +1798,13 @@
         <v>90</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="1">
-        <v>320</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1951,19 +1822,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="1">
-        <v>507</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1981,19 +1846,13 @@
         <v>7</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="1">
-        <v>40</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2011,19 +1870,13 @@
         <v>7</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="1">
-        <v>874</v>
-      </c>
-      <c r="S23">
-        <v>21</v>
-      </c>
-      <c r="V23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2041,19 +1894,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="V24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -2071,19 +1918,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="1">
-        <v>407</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2101,19 +1942,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2131,19 +1966,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="V27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2161,19 +1990,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="V28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2191,19 +2014,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2221,19 +2038,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="V30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2251,19 +2062,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="V31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2281,19 +2086,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="V32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2311,19 +2110,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
       </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="V33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,19 +2134,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q34" s="1">
         <v>0</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="V34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2371,19 +2158,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="V35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2401,19 +2182,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q36" s="1">
         <v>0</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="V36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,19 +2206,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q37" s="1">
-        <v>289</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="V37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2461,19 +2230,13 @@
         <v>0</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="V38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
@@ -2491,19 +2254,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q39" s="1">
         <v>0</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="V39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>54</v>
       </c>
@@ -2521,19 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q40" s="1">
         <v>0</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="V40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>55</v>
       </c>
@@ -2551,19 +2302,13 @@
         <v>0</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="V41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="4" t="s">
         <v>56</v>
       </c>
@@ -2581,19 +2326,13 @@
         <v>0</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q42" s="1">
         <v>0</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="V42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>57</v>
       </c>
@@ -2611,19 +2350,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q43" s="1">
         <v>0</v>
       </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="V43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="4" t="s">
         <v>58</v>
       </c>
@@ -2641,19 +2374,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q44" s="1">
         <v>0</v>
       </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="V44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>59</v>
       </c>
@@ -2671,19 +2398,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q45" s="1">
         <v>0</v>
       </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="V45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="4" t="s">
         <v>60</v>
       </c>
@@ -2701,19 +2422,13 @@
         <v>0</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q46" s="1">
-        <v>154</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="V46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
@@ -2731,19 +2446,13 @@
         <v>0</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="V47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="4" t="s">
         <v>62</v>
       </c>
@@ -2761,19 +2470,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q48" s="1">
         <v>0</v>
       </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="V48" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>63</v>
       </c>
@@ -2791,19 +2494,13 @@
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q49" s="1">
         <v>0</v>
       </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="V49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="4" t="s">
         <v>64</v>
       </c>
@@ -2821,19 +2518,13 @@
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q50" s="1">
         <v>0</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="V50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="3" t="s">
         <v>65</v>
       </c>
@@ -2851,19 +2542,13 @@
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q51" s="1">
         <v>0</v>
       </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="V51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="4" t="s">
         <v>66</v>
       </c>
@@ -2881,19 +2566,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q52" s="1">
         <v>0</v>
       </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="V52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>67</v>
       </c>
@@ -2911,19 +2590,13 @@
         <v>0</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q53" s="1">
         <v>0</v>
       </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="V53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="4" t="s">
         <v>68</v>
       </c>
@@ -2941,19 +2614,13 @@
         <v>0</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q54" s="1">
         <v>0</v>
       </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="V54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>69</v>
       </c>
@@ -2971,19 +2638,13 @@
         <v>0</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q55" s="1">
         <v>0</v>
       </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="V55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="4" t="s">
         <v>70</v>
       </c>
@@ -3001,19 +2662,13 @@
         <v>0</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q56" s="1">
         <v>0</v>
       </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="V56" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>71</v>
       </c>
@@ -3031,19 +2686,13 @@
         <v>0</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q57" s="1">
         <v>0</v>
       </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="V57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="4" t="s">
         <v>72</v>
       </c>
@@ -3061,19 +2710,13 @@
         <v>0</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q58" s="1">
         <v>0</v>
       </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="V58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="4" t="s">
         <v>73</v>
       </c>
@@ -3091,19 +2734,13 @@
         <v>0</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q59" s="1">
         <v>0</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="V59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="4" t="s">
         <v>74</v>
       </c>
@@ -3121,19 +2758,13 @@
         <v>0</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q60" s="1">
         <v>0</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="V60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>75</v>
       </c>
@@ -3151,19 +2782,13 @@
         <v>0</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q61" s="1">
         <v>0</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="V61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="4" t="s">
         <v>76</v>
       </c>
@@ -3181,19 +2806,13 @@
         <v>0</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q62" s="1">
-        <v>361</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="V62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="3" t="s">
         <v>77</v>
       </c>
@@ -3211,19 +2830,13 @@
         <v>0</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="V63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="4" t="s">
         <v>78</v>
       </c>
@@ -3241,19 +2854,13 @@
         <v>0</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q64" s="1">
-        <v>84</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="V64" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="4" t="s">
         <v>79</v>
       </c>
@@ -3271,19 +2878,13 @@
         <v>0</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q65" s="1">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="V65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="4" t="s">
         <v>80</v>
       </c>
@@ -3301,19 +2902,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q66" s="1">
-        <v>146</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="V66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="4" t="s">
         <v>81</v>
       </c>
@@ -3331,19 +2926,13 @@
         <v>0</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q67" s="1">
-        <v>106</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="V67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="4" t="s">
         <v>82</v>
       </c>
@@ -3361,19 +2950,13 @@
         <v>0</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="V68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="4" t="s">
         <v>83</v>
       </c>
@@ -3391,19 +2974,13 @@
         <v>0</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q69" s="1">
-        <v>4</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="V69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="4" t="s">
         <v>84</v>
       </c>
@@ -3421,19 +2998,13 @@
         <v>21</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q70" s="1">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="V70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="4" t="s">
         <v>85</v>
       </c>
@@ -3451,19 +3022,13 @@
         <v>0</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q71" s="1">
-        <v>58</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="V71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="4" t="s">
         <v>86</v>
       </c>
@@ -3481,19 +3046,13 @@
         <v>0</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q72" s="1">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="V72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="4" t="s">
         <v>87</v>
       </c>
@@ -3511,19 +3070,13 @@
         <v>0</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q73" s="1">
-        <v>263</v>
-      </c>
-      <c r="S73">
-        <v>9</v>
-      </c>
-      <c r="V73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="4" t="s">
         <v>88</v>
       </c>
@@ -3540,118 +3093,11 @@
       <c r="F74" s="1">
         <v>0</v>
       </c>
-      <c r="V74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
-      <c r="V75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
-      <c r="V76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="V77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="V78" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
-      <c r="V79" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
-      <c r="V80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="22:22">
-      <c r="V81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="22:22">
-      <c r="V82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="22:22">
-      <c r="V83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="22:22">
-      <c r="V84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="22:22">
-      <c r="V85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="22:22">
-      <c r="V86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="22:22">
-      <c r="V87" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="22:22">
-      <c r="V88" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="22:22">
-      <c r="V89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="22:22">
-      <c r="V90" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="22:22">
-      <c r="V91" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="22:22">
-      <c r="V92" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="93" spans="22:22">
-      <c r="V93" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="22:22">
-      <c r="V94" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="22:22">
-      <c r="V95" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="22:22">
-      <c r="V96" t="s">
-        <v>157</v>
+      <c r="P74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
